--- a/contratos/contratos-3-2019.xlsx
+++ b/contratos/contratos-3-2019.xlsx
@@ -1300,13 +1300,13 @@
     <t>NAUTICA COOK S.A.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>WEIGANDT GERARDO ARTURO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>GIORGI EDUARDO DANIEL</t>
@@ -1897,754 +1897,754 @@
     <t>109</t>
   </si>
   <si>
-    <t>27.500,00</t>
-  </si>
-  <si>
-    <t>10.560,00</t>
-  </si>
-  <si>
-    <t>10.400,00</t>
-  </si>
-  <si>
-    <t>18.200,00</t>
-  </si>
-  <si>
-    <t>6.100,00</t>
-  </si>
-  <si>
-    <t>42.425,00</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>578.500,00</t>
-  </si>
-  <si>
-    <t>2.616.000,00</t>
-  </si>
-  <si>
-    <t>1.308.000,00</t>
-  </si>
-  <si>
-    <t>850.000,00</t>
-  </si>
-  <si>
-    <t>250.000,00</t>
-  </si>
-  <si>
-    <t>5.437.200,00</t>
-  </si>
-  <si>
-    <t>2.943.000,00</t>
-  </si>
-  <si>
-    <t>155,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>583.773,94</t>
-  </si>
-  <si>
-    <t>14.100,00</t>
-  </si>
-  <si>
-    <t>48.400,00</t>
-  </si>
-  <si>
-    <t>479.500,00</t>
-  </si>
-  <si>
-    <t>12.899,90</t>
-  </si>
-  <si>
-    <t>1.537,92</t>
-  </si>
-  <si>
-    <t>808.956,00</t>
-  </si>
-  <si>
-    <t>701.551,47</t>
-  </si>
-  <si>
-    <t>293.580,32</t>
-  </si>
-  <si>
-    <t>98.266,84</t>
-  </si>
-  <si>
-    <t>13.641,50</t>
-  </si>
-  <si>
-    <t>138.459,60</t>
-  </si>
-  <si>
-    <t>50.125,00</t>
-  </si>
-  <si>
-    <t>85.800,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>54.947,20</t>
-  </si>
-  <si>
-    <t>3.480,46</t>
-  </si>
-  <si>
-    <t>79.458,17</t>
-  </si>
-  <si>
-    <t>21.686,00</t>
-  </si>
-  <si>
-    <t>42.480,00</t>
-  </si>
-  <si>
-    <t>58.503,89</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>22.700,00</t>
-  </si>
-  <si>
-    <t>13.600,08</t>
-  </si>
-  <si>
-    <t>144,88</t>
-  </si>
-  <si>
-    <t>176,00</t>
-  </si>
-  <si>
-    <t>83,48</t>
-  </si>
-  <si>
-    <t>1.869,63</t>
-  </si>
-  <si>
-    <t>6.732.145,46</t>
-  </si>
-  <si>
-    <t>74.026,84</t>
-  </si>
-  <si>
-    <t>197.615,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>3.311,00</t>
-  </si>
-  <si>
-    <t>76.084,00</t>
-  </si>
-  <si>
-    <t>74.215,00</t>
-  </si>
-  <si>
-    <t>1.769,95</t>
-  </si>
-  <si>
-    <t>201.991,00</t>
-  </si>
-  <si>
-    <t>37.000,00</t>
-  </si>
-  <si>
-    <t>1.576,61</t>
-  </si>
-  <si>
-    <t>14.900,00</t>
-  </si>
-  <si>
-    <t>22.999,00</t>
-  </si>
-  <si>
-    <t>2.685,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>56.740,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>8.848,19</t>
-  </si>
-  <si>
-    <t>357.290,23</t>
-  </si>
-  <si>
-    <t>69.325,00</t>
-  </si>
-  <si>
-    <t>74,00</t>
-  </si>
-  <si>
-    <t>2.658,00</t>
-  </si>
-  <si>
-    <t>154,00</t>
-  </si>
-  <si>
-    <t>7.815,58</t>
-  </si>
-  <si>
-    <t>1.928,50</t>
-  </si>
-  <si>
-    <t>63.720,00</t>
-  </si>
-  <si>
-    <t>21.939,23</t>
-  </si>
-  <si>
-    <t>940,00</t>
-  </si>
-  <si>
-    <t>3.605,60</t>
-  </si>
-  <si>
-    <t>6.369,07</t>
-  </si>
-  <si>
-    <t>511,21</t>
-  </si>
-  <si>
-    <t>459.521,83</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>1.172,60</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>5.051,08</t>
-  </si>
-  <si>
-    <t>11.700,00</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>21.583,78</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>16.200,00</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>43.800,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>10.480,00</t>
-  </si>
-  <si>
-    <t>8.282,00</t>
-  </si>
-  <si>
-    <t>7.480,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>726,00</t>
-  </si>
-  <si>
-    <t>29.121,00</t>
-  </si>
-  <si>
-    <t>2.174,00</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
-    <t>6.304,00</t>
-  </si>
-  <si>
-    <t>43,05</t>
-  </si>
-  <si>
-    <t>55.485,36</t>
-  </si>
-  <si>
-    <t>21.151,10</t>
-  </si>
-  <si>
-    <t>52.955,66</t>
-  </si>
-  <si>
-    <t>7.822,54</t>
-  </si>
-  <si>
-    <t>23.779,00</t>
-  </si>
-  <si>
-    <t>504,00</t>
-  </si>
-  <si>
-    <t>4.576,00</t>
-  </si>
-  <si>
-    <t>94.938,60</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>35.020,00</t>
-  </si>
-  <si>
-    <t>38.081,00</t>
-  </si>
-  <si>
-    <t>21.010,00</t>
-  </si>
-  <si>
-    <t>9.960,00</t>
-  </si>
-  <si>
-    <t>17.561,10</t>
-  </si>
-  <si>
-    <t>109.588,74</t>
-  </si>
-  <si>
-    <t>2.186,00</t>
-  </si>
-  <si>
-    <t>38.960,00</t>
-  </si>
-  <si>
-    <t>1.165,00</t>
-  </si>
-  <si>
-    <t>1.449,90</t>
-  </si>
-  <si>
-    <t>40.255,00</t>
-  </si>
-  <si>
-    <t>10.558,00</t>
-  </si>
-  <si>
-    <t>351.000,00</t>
-  </si>
-  <si>
-    <t>9.426,00</t>
-  </si>
-  <si>
-    <t>67.800,00</t>
-  </si>
-  <si>
-    <t>6.790,00</t>
-  </si>
-  <si>
-    <t>41.154,00</t>
-  </si>
-  <si>
-    <t>16.990,00</t>
-  </si>
-  <si>
-    <t>13.828,00</t>
-  </si>
-  <si>
-    <t>3.051,20</t>
-  </si>
-  <si>
-    <t>905,20</t>
-  </si>
-  <si>
-    <t>173,40</t>
-  </si>
-  <si>
-    <t>26.500,00</t>
-  </si>
-  <si>
-    <t>12.544,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>105.000,00</t>
-  </si>
-  <si>
-    <t>145.000,00</t>
-  </si>
-  <si>
-    <t>88.000,00</t>
-  </si>
-  <si>
-    <t>29.800,00</t>
-  </si>
-  <si>
-    <t>789.500,00</t>
-  </si>
-  <si>
-    <t>2.975,00</t>
-  </si>
-  <si>
-    <t>97.800,00</t>
-  </si>
-  <si>
-    <t>5.432,65</t>
-  </si>
-  <si>
-    <t>4.560,00</t>
-  </si>
-  <si>
-    <t>5.328,40</t>
-  </si>
-  <si>
-    <t>91.154,96</t>
-  </si>
-  <si>
-    <t>10.770,00</t>
-  </si>
-  <si>
-    <t>17.275,00</t>
-  </si>
-  <si>
-    <t>11.545,00</t>
-  </si>
-  <si>
-    <t>3.881,48</t>
-  </si>
-  <si>
-    <t>10.000.000,00</t>
-  </si>
-  <si>
-    <t>60.925,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>30.500,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>15.500,00</t>
-  </si>
-  <si>
-    <t>22.000,25</t>
-  </si>
-  <si>
-    <t>21.500,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>31.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>22.800,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>50.573,21</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>41.278,55</t>
-  </si>
-  <si>
-    <t>90.780,00</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>4.115,23</t>
-  </si>
-  <si>
-    <t>650,02</t>
-  </si>
-  <si>
-    <t>9.565,00</t>
-  </si>
-  <si>
-    <t>6.655,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>23.710,00</t>
-  </si>
-  <si>
-    <t>16.345,00</t>
-  </si>
-  <si>
-    <t>175,00</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>3.056,82</t>
-  </si>
-  <si>
-    <t>5.923,48</t>
-  </si>
-  <si>
-    <t>38.905,20</t>
-  </si>
-  <si>
-    <t>11.270,00</t>
-  </si>
-  <si>
-    <t>13.481,12</t>
-  </si>
-  <si>
-    <t>42.080,00</t>
-  </si>
-  <si>
-    <t>26.468,00</t>
-  </si>
-  <si>
-    <t>17.569,66</t>
-  </si>
-  <si>
-    <t>3.890,00</t>
-  </si>
-  <si>
-    <t>7.229,73</t>
-  </si>
-  <si>
-    <t>9.450,00</t>
-  </si>
-  <si>
-    <t>299,88</t>
-  </si>
-  <si>
-    <t>4.767,00</t>
-  </si>
-  <si>
-    <t>943,58</t>
-  </si>
-  <si>
-    <t>15.030,00</t>
-  </si>
-  <si>
-    <t>13.170,00</t>
-  </si>
-  <si>
-    <t>4.615,74</t>
-  </si>
-  <si>
-    <t>15.754,20</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>1.461,18</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>17.976,95</t>
-  </si>
-  <si>
-    <t>4.942.777,96</t>
-  </si>
-  <si>
-    <t>9.550,00</t>
-  </si>
-  <si>
-    <t>738.500,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>341.167,30</t>
-  </si>
-  <si>
-    <t>241.000,00</t>
-  </si>
-  <si>
-    <t>22.944.976,12</t>
-  </si>
-  <si>
-    <t>325.800,00</t>
-  </si>
-  <si>
-    <t>254.200,00</t>
-  </si>
-  <si>
-    <t>451.000,00</t>
-  </si>
-  <si>
-    <t>366.900,00</t>
-  </si>
-  <si>
-    <t>513.000,00</t>
-  </si>
-  <si>
-    <t>337.650,00</t>
-  </si>
-  <si>
-    <t>482.000,00</t>
-  </si>
-  <si>
-    <t>394.150,00</t>
-  </si>
-  <si>
-    <t>474.400,00</t>
-  </si>
-  <si>
-    <t>929.050,00</t>
-  </si>
-  <si>
-    <t>745.900,00</t>
-  </si>
-  <si>
-    <t>257.410,00</t>
-  </si>
-  <si>
-    <t>118.459,50</t>
-  </si>
-  <si>
-    <t>92.202,00</t>
-  </si>
-  <si>
-    <t>26.018.693,51</t>
-  </si>
-  <si>
-    <t>1.852.723,99</t>
-  </si>
-  <si>
-    <t>27.930,00</t>
-  </si>
-  <si>
-    <t>639.995,34</t>
-  </si>
-  <si>
-    <t>1.280.000,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>14.500,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>15.212,50</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>6.090,00</t>
-  </si>
-  <si>
-    <t>40.900,00</t>
-  </si>
-  <si>
-    <t>744.000,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>11.055,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>22.350,00</t>
+    <t>27500.00</t>
+  </si>
+  <si>
+    <t>10560.00</t>
+  </si>
+  <si>
+    <t>10400.00</t>
+  </si>
+  <si>
+    <t>18200.00</t>
+  </si>
+  <si>
+    <t>6100.00</t>
+  </si>
+  <si>
+    <t>42425.00</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>578500.00</t>
+  </si>
+  <si>
+    <t>2616000.00</t>
+  </si>
+  <si>
+    <t>1308000.00</t>
+  </si>
+  <si>
+    <t>850000.00</t>
+  </si>
+  <si>
+    <t>250000.00</t>
+  </si>
+  <si>
+    <t>5437200.00</t>
+  </si>
+  <si>
+    <t>2943000.00</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>583773.94</t>
+  </si>
+  <si>
+    <t>14100.00</t>
+  </si>
+  <si>
+    <t>48400.00</t>
+  </si>
+  <si>
+    <t>479500.00</t>
+  </si>
+  <si>
+    <t>12899.90</t>
+  </si>
+  <si>
+    <t>1537.92</t>
+  </si>
+  <si>
+    <t>808956.00</t>
+  </si>
+  <si>
+    <t>701551.47</t>
+  </si>
+  <si>
+    <t>293580.32</t>
+  </si>
+  <si>
+    <t>98266.84</t>
+  </si>
+  <si>
+    <t>13641.50</t>
+  </si>
+  <si>
+    <t>138459.60</t>
+  </si>
+  <si>
+    <t>50125.00</t>
+  </si>
+  <si>
+    <t>85800.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>54947.20</t>
+  </si>
+  <si>
+    <t>3480.46</t>
+  </si>
+  <si>
+    <t>79458.17</t>
+  </si>
+  <si>
+    <t>21686.00</t>
+  </si>
+  <si>
+    <t>42480.00</t>
+  </si>
+  <si>
+    <t>58503.89</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>22700.00</t>
+  </si>
+  <si>
+    <t>13600.08</t>
+  </si>
+  <si>
+    <t>144.88</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>83.48</t>
+  </si>
+  <si>
+    <t>1869.63</t>
+  </si>
+  <si>
+    <t>6732145.46</t>
+  </si>
+  <si>
+    <t>74026.84</t>
+  </si>
+  <si>
+    <t>197615.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>3311.00</t>
+  </si>
+  <si>
+    <t>76084.00</t>
+  </si>
+  <si>
+    <t>74215.00</t>
+  </si>
+  <si>
+    <t>1769.95</t>
+  </si>
+  <si>
+    <t>201991.00</t>
+  </si>
+  <si>
+    <t>37000.00</t>
+  </si>
+  <si>
+    <t>1576.61</t>
+  </si>
+  <si>
+    <t>14900.00</t>
+  </si>
+  <si>
+    <t>22999.00</t>
+  </si>
+  <si>
+    <t>2685.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>56740.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>8848.19</t>
+  </si>
+  <si>
+    <t>357290.23</t>
+  </si>
+  <si>
+    <t>69325.00</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>2658.00</t>
+  </si>
+  <si>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>7815.58</t>
+  </si>
+  <si>
+    <t>1928.50</t>
+  </si>
+  <si>
+    <t>63720.00</t>
+  </si>
+  <si>
+    <t>21939.23</t>
+  </si>
+  <si>
+    <t>940.00</t>
+  </si>
+  <si>
+    <t>3605.60</t>
+  </si>
+  <si>
+    <t>6369.07</t>
+  </si>
+  <si>
+    <t>511.21</t>
+  </si>
+  <si>
+    <t>459521.83</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>1172.60</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>5051.08</t>
+  </si>
+  <si>
+    <t>11700.00</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>21583.78</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>16200.00</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>43800.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>10480.00</t>
+  </si>
+  <si>
+    <t>8282.00</t>
+  </si>
+  <si>
+    <t>7480.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>726.00</t>
+  </si>
+  <si>
+    <t>29121.00</t>
+  </si>
+  <si>
+    <t>2174.00</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>6304.00</t>
+  </si>
+  <si>
+    <t>43.05</t>
+  </si>
+  <si>
+    <t>55485.36</t>
+  </si>
+  <si>
+    <t>21151.10</t>
+  </si>
+  <si>
+    <t>52955.66</t>
+  </si>
+  <si>
+    <t>7822.54</t>
+  </si>
+  <si>
+    <t>23779.00</t>
+  </si>
+  <si>
+    <t>504.00</t>
+  </si>
+  <si>
+    <t>4576.00</t>
+  </si>
+  <si>
+    <t>94938.60</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>35020.00</t>
+  </si>
+  <si>
+    <t>38081.00</t>
+  </si>
+  <si>
+    <t>21010.00</t>
+  </si>
+  <si>
+    <t>9960.00</t>
+  </si>
+  <si>
+    <t>17561.10</t>
+  </si>
+  <si>
+    <t>109588.74</t>
+  </si>
+  <si>
+    <t>2186.00</t>
+  </si>
+  <si>
+    <t>38960.00</t>
+  </si>
+  <si>
+    <t>1165.00</t>
+  </si>
+  <si>
+    <t>1449.90</t>
+  </si>
+  <si>
+    <t>40255.00</t>
+  </si>
+  <si>
+    <t>10558.00</t>
+  </si>
+  <si>
+    <t>351000.00</t>
+  </si>
+  <si>
+    <t>9426.00</t>
+  </si>
+  <si>
+    <t>67800.00</t>
+  </si>
+  <si>
+    <t>6790.00</t>
+  </si>
+  <si>
+    <t>41154.00</t>
+  </si>
+  <si>
+    <t>16990.00</t>
+  </si>
+  <si>
+    <t>13828.00</t>
+  </si>
+  <si>
+    <t>3051.20</t>
+  </si>
+  <si>
+    <t>905.20</t>
+  </si>
+  <si>
+    <t>173.40</t>
+  </si>
+  <si>
+    <t>26500.00</t>
+  </si>
+  <si>
+    <t>12544.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>145000.00</t>
+  </si>
+  <si>
+    <t>88000.00</t>
+  </si>
+  <si>
+    <t>29800.00</t>
+  </si>
+  <si>
+    <t>789500.00</t>
+  </si>
+  <si>
+    <t>2975.00</t>
+  </si>
+  <si>
+    <t>97800.00</t>
+  </si>
+  <si>
+    <t>5432.65</t>
+  </si>
+  <si>
+    <t>4560.00</t>
+  </si>
+  <si>
+    <t>5328.40</t>
+  </si>
+  <si>
+    <t>91154.96</t>
+  </si>
+  <si>
+    <t>10770.00</t>
+  </si>
+  <si>
+    <t>17275.00</t>
+  </si>
+  <si>
+    <t>11545.00</t>
+  </si>
+  <si>
+    <t>3881.48</t>
+  </si>
+  <si>
+    <t>10000000.00</t>
+  </si>
+  <si>
+    <t>60925.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>30500.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>15500.00</t>
+  </si>
+  <si>
+    <t>22000.25</t>
+  </si>
+  <si>
+    <t>21500.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>31000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>22800.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>50573.21</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>41278.55</t>
+  </si>
+  <si>
+    <t>90780.00</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>4115.23</t>
+  </si>
+  <si>
+    <t>650.02</t>
+  </si>
+  <si>
+    <t>9565.00</t>
+  </si>
+  <si>
+    <t>6655.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>23710.00</t>
+  </si>
+  <si>
+    <t>16345.00</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>3056.82</t>
+  </si>
+  <si>
+    <t>5923.48</t>
+  </si>
+  <si>
+    <t>38905.20</t>
+  </si>
+  <si>
+    <t>11270.00</t>
+  </si>
+  <si>
+    <t>13481.12</t>
+  </si>
+  <si>
+    <t>42080.00</t>
+  </si>
+  <si>
+    <t>26468.00</t>
+  </si>
+  <si>
+    <t>17569.66</t>
+  </si>
+  <si>
+    <t>3890.00</t>
+  </si>
+  <si>
+    <t>7229.73</t>
+  </si>
+  <si>
+    <t>9450.00</t>
+  </si>
+  <si>
+    <t>299.88</t>
+  </si>
+  <si>
+    <t>4767.00</t>
+  </si>
+  <si>
+    <t>943.58</t>
+  </si>
+  <si>
+    <t>15030.00</t>
+  </si>
+  <si>
+    <t>13170.00</t>
+  </si>
+  <si>
+    <t>4615.74</t>
+  </si>
+  <si>
+    <t>15754.20</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>1461.18</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>17976.95</t>
+  </si>
+  <si>
+    <t>4942777.96</t>
+  </si>
+  <si>
+    <t>9550.00</t>
+  </si>
+  <si>
+    <t>738500.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>341167.30</t>
+  </si>
+  <si>
+    <t>241000.00</t>
+  </si>
+  <si>
+    <t>22944976.12</t>
+  </si>
+  <si>
+    <t>325800.00</t>
+  </si>
+  <si>
+    <t>254200.00</t>
+  </si>
+  <si>
+    <t>451000.00</t>
+  </si>
+  <si>
+    <t>366900.00</t>
+  </si>
+  <si>
+    <t>513000.00</t>
+  </si>
+  <si>
+    <t>337650.00</t>
+  </si>
+  <si>
+    <t>482000.00</t>
+  </si>
+  <si>
+    <t>394150.00</t>
+  </si>
+  <si>
+    <t>474400.00</t>
+  </si>
+  <si>
+    <t>929050.00</t>
+  </si>
+  <si>
+    <t>745900.00</t>
+  </si>
+  <si>
+    <t>257410.00</t>
+  </si>
+  <si>
+    <t>118459.50</t>
+  </si>
+  <si>
+    <t>92202.00</t>
+  </si>
+  <si>
+    <t>26018693.51</t>
+  </si>
+  <si>
+    <t>1852723.99</t>
+  </si>
+  <si>
+    <t>27930.00</t>
+  </si>
+  <si>
+    <t>639995.34</t>
+  </si>
+  <si>
+    <t>1280000.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>14500.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>15212.50</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>6090.00</t>
+  </si>
+  <si>
+    <t>40900.00</t>
+  </si>
+  <si>
+    <t>744000.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>11055.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>22350.00</t>
   </si>
 </sst>
 </file>
